--- a/data/trans_orig/P78DS3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00FF2005-F6DB-4351-AB9B-19C64FED31AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{161AD75A-F128-4C87-A8B4-4674131F6AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56C08C56-BAD0-420A-B80E-2DAF2626FA97}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7462D519-78C5-4CB5-B2DA-211590B96487}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="93">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 3 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -83,226 +83,235 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,51%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>Tasa de autónomos</t>
+  </si>
+  <si>
+    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>Tasa de autónomos</t>
-  </si>
-  <si>
-    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -717,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912BF747-89C3-49B9-B60C-5024BDEA64E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406EB77A-CFCB-477D-834F-8DDFCFEDA990}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1081,13 +1090,13 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1111,13 +1120,13 @@
         <v>696</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1132,13 +1141,13 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1189,7 +1198,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7">
         <v>632</v>
@@ -1198,13 +1207,13 @@
         <v>494206</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1319</v>
@@ -1213,13 +1222,13 @@
         <v>770441</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>1951</v>
@@ -1228,13 +1237,13 @@
         <v>1264647</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1249,13 +1258,13 @@
         <v>495197</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" s="7">
         <v>1324</v>
@@ -1264,13 +1273,13 @@
         <v>773985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M12" s="7">
         <v>1957</v>
@@ -1279,18 +1288,18 @@
         <v>1269182</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1308,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1317,13 +1326,13 @@
         <v>3348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -1332,13 +1341,13 @@
         <v>6388</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1368,13 +1377,13 @@
         <v>881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1383,13 +1392,13 @@
         <v>881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1419,13 +1428,13 @@
         <v>159</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -1434,13 +1443,13 @@
         <v>3652</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1464,13 @@
         <v>2552</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1476,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1485,13 +1494,13 @@
         <v>3529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,7 +1536,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1542,13 +1551,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1578,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1593,13 +1602,13 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -1623,13 +1632,13 @@
         <v>729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1638,19 +1647,19 @@
         <v>729</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
         <v>1922</v>
@@ -1659,13 +1668,13 @@
         <v>2091871</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
         <v>2797</v>
@@ -1674,13 +1683,13 @@
         <v>2136062</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>4719</v>
@@ -1689,13 +1698,13 @@
         <v>4227933</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1719,13 @@
         <v>2100955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
         <v>2805</v>
@@ -1725,13 +1734,13 @@
         <v>2142156</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M21" s="7">
         <v>4732</v>
@@ -1740,18 +1749,18 @@
         <v>4243111</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1769,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1784,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1799,7 +1808,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,7 +1829,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1835,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -1850,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1886,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1901,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1937,7 +1946,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1952,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -1982,13 +1991,13 @@
         <v>840</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2003,13 +2012,13 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2024,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2039,7 +2048,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2054,13 +2063,13 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -2075,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2090,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2105,13 +2114,13 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
         <v>676</v>
@@ -2120,13 +2129,13 @@
         <v>670138</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H29" s="7">
         <v>983</v>
@@ -2135,13 +2144,13 @@
         <v>702399</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M29" s="7">
         <v>1659</v>
@@ -2150,13 +2159,13 @@
         <v>1372538</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2180,13 @@
         <v>670138</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H30" s="7">
         <v>984</v>
@@ -2186,13 +2195,13 @@
         <v>703239</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M30" s="7">
         <v>1660</v>
@@ -2201,13 +2210,13 @@
         <v>1373378</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2233,13 @@
         <v>3039</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -2239,10 +2248,10 @@
         <v>4134</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>81</v>
@@ -2257,10 +2266,10 @@
         <v>14</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2299,13 @@
         <v>881</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2305,13 +2314,13 @@
         <v>881</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2335,13 @@
         <v>3492</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -2347,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -2362,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2386,13 @@
         <v>3543</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -2395,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>26</v>
@@ -2407,13 +2416,13 @@
         <v>5805</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2452,13 @@
         <v>1617</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -2458,19 +2467,19 @@
         <v>1617</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -2494,7 +2503,7 @@
         <v>696</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
@@ -2509,19 +2518,19 @@
         <v>696</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -2545,7 +2554,7 @@
         <v>729</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
@@ -2560,19 +2569,19 @@
         <v>729</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
         <v>3230</v>
@@ -2581,13 +2590,13 @@
         <v>3256215</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="H38" s="7">
         <v>5099</v>
@@ -2602,22 +2611,22 @@
         <v>87</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="M38" s="7">
         <v>8329</v>
       </c>
       <c r="N38" s="7">
-        <v>6865118</v>
+        <v>6865117</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2641,13 @@
         <v>3266290</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H39" s="7">
         <v>5113</v>
@@ -2647,33 +2656,33 @@
         <v>3619381</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M39" s="7">
         <v>8349</v>
       </c>
       <c r="N39" s="7">
-        <v>6885671</v>
+        <v>6885670</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{161AD75A-F128-4C87-A8B4-4674131F6AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F14D2D-7BB4-4DDC-AB07-A694E90E3975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7462D519-78C5-4CB5-B2DA-211590B96487}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AEA9560-A252-498F-B268-CB7CE1554F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406EB77A-CFCB-477D-834F-8DDFCFEDA990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74A212F-5B99-44F3-BE42-4DB2B5F63C76}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
